--- a/population_data_updated2.xlsx
+++ b/population_data_updated2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanand\Desktop\Team_Housing_prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{656D5BE2-DE49-4B7F-B4B3-5166830EBD27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8687867F-73F6-4447-90B1-17A34BAACAAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,17 @@
   <definedNames>
     <definedName name="sub_annres_6">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -434,7 +444,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -657,34 +667,34 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>166226</v>
+        <v>65067</v>
       </c>
       <c r="C7">
-        <v>167928</v>
+        <v>65970</v>
       </c>
       <c r="D7">
-        <v>169959</v>
+        <v>66725</v>
       </c>
       <c r="E7">
-        <v>170815</v>
+        <v>67722</v>
       </c>
       <c r="F7">
-        <v>173220</v>
+        <v>69389</v>
       </c>
       <c r="G7">
-        <v>174203</v>
+        <v>70640</v>
       </c>
       <c r="H7">
-        <v>175782</v>
+        <v>72162</v>
       </c>
       <c r="I7">
-        <v>176921</v>
+        <v>73398</v>
       </c>
       <c r="J7">
-        <v>177345</v>
+        <v>74478</v>
       </c>
       <c r="K7">
-        <v>177603</v>
+        <v>75087</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
